--- a/HW1/results/v1/DecisionTreeClassifier/bayes/calculationsAndChartsBayes.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/bayes/calculationsAndChartsBayes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9215746-FB53-4082-8DB9-D7124DE19BB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DBBE3-21ED-4B5A-9393-59C98950EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10170" firstSheet="4" activeTab="5" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (2)" sheetId="13" r:id="rId1"/>
@@ -27,36 +27,12 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">Sheet1!$L$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">Sheet1!$M$2:$M$51</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">Sheet1!$N$2:$N$51</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">Sheet1!$L$2:$L$51</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">Sheet1!$M$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">Sheet1!$N$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">Sheet1!$M$2:$M$51</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">Sheet1!$O$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">Sheet1!$O$2:$O$51</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">Sheet1!$N$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">Sheet1!$N$2:$N$51</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">Sheet1!$O$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">Sheet1!$O$2:$O$51</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">Sheet1!$L$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">Sheet1!$L$2:$L$51</definedName>
     <definedName name="ExternalData_1" localSheetId="3" hidden="1">'elevators (2)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_2" localSheetId="2" hidden="1">'MagicTelescope (2)'!$A$1:$V$51</definedName>
     <definedName name="ExternalData_3" localSheetId="1" hidden="1">'mozilla4 (2)'!$A$1:$V$51</definedName>
@@ -5746,7 +5722,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:srgbClr val="4472C4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -6441,22 +6417,22 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.25</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.27</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.29</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.31</cx:f>
+        <cx:f>_xlchart.v1.7</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6466,7 +6442,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A6CAAF03-FAF4-4832-B510-E598386738E6}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.24</cx:f>
+              <cx:f>_xlchart.v1.0</cx:f>
               <cx:v>elevators</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6479,7 +6455,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{A944B5A6-DE7C-4F2A-971C-02236A1965A8}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.26</cx:f>
+              <cx:f>_xlchart.v1.2</cx:f>
               <cx:v>MagicTelescope</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6492,7 +6468,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8F3AFD1A-AA3B-4A54-88CC-3F3C77A70430}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.28</cx:f>
+              <cx:f>_xlchart.v1.4</cx:f>
               <cx:v>mozilla4</cx:v>
             </cx:txData>
           </cx:tx>
@@ -6505,7 +6481,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{10F1762C-8E4C-459D-A326-3529E8023F0F}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.30</cx:f>
+              <cx:f>_xlchart.v1.6</cx:f>
               <cx:v>PhishingWebsites</cx:v>
             </cx:txData>
           </cx:tx>
@@ -9314,7 +9290,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{23D2D52D-91C7-4020-9A1E-BA8E43C34B46}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="59" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="59" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9358,7 +9334,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{69ACB294-AB4B-4675-9923-FFEBC29DCADE}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="70" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -9369,7 +9345,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8657167" cy="6286500"/>
+    <xdr:ext cx="8653220" cy="6285424"/>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
         <xdr:graphicFrame macro="">
@@ -9435,7 +9411,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9CEB6555-6D82-B7E2-3BDD-581C6AD5771C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE87EB05-B6B2-8F89-802D-8D4734A30836}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -9446,7 +9422,7 @@
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:off x="0" y="0"/>
-          <a:ext cx="8657167" cy="6286500"/>
+          <a:ext cx="8653220" cy="6285424"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>

--- a/HW1/results/v1/DecisionTreeClassifier/bayes/calculationsAndChartsBayes.xlsx
+++ b/HW1/results/v1/DecisionTreeClassifier/bayes/calculationsAndChartsBayes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\donts\Documents\Files\AutoML\HW1\repo\AutoML\HW1\results\v1\DecisionTreeClassifier\bayes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{345DBBE3-21ED-4B5A-9393-59C98950EC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA55DA6C-3424-4C06-88DC-DF6E91F93FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="5" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" firstSheet="7" activeTab="9" xr2:uid="{5557167C-0605-4BD0-8448-1B4F42F20281}"/>
   </bookViews>
   <sheets>
     <sheet name="PhishingWebsites (2)" sheetId="13" r:id="rId1"/>
@@ -898,6 +898,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA5A5A5"/>
+      <color rgb="FFFFC000"/>
+      <color rgb="FFED7D31"/>
       <color rgb="FF4472C4"/>
     </mruColors>
   </colors>
@@ -1810,7 +1813,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:srgbClr val="ED7D31"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -3767,7 +3770,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="FFC000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -5722,7 +5725,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="4472C4"/>
+                <a:srgbClr val="A5A5A5"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -9411,7 +9414,7 @@
         <cdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE87EB05-B6B2-8F89-802D-8D4734A30836}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4F9E427-4BF3-05DC-877D-677DE0BAFB4A}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -24127,8 +24130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7922235-7E49-4102-BA15-4B3DDB670ECB}">
   <dimension ref="A1:Y51"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" zoomScale="70" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView topLeftCell="K1" zoomScale="70" workbookViewId="0">
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -24342,6 +24345,22 @@
         <f t="shared" ref="O3:O51" si="7">Y$2-F3</f>
         <v>-8.8558547229866669E-4</v>
       </c>
+      <c r="V3">
+        <f>ROUND($U2-V2,4)</f>
+        <v>6.0400000000000002E-2</v>
+      </c>
+      <c r="W3">
+        <f t="shared" ref="W3:Y3" si="8">ROUND($U2-W2,4)</f>
+        <v>0.02</v>
+      </c>
+      <c r="X3">
+        <f t="shared" si="8"/>
+        <v>-1.5900000000000001E-2</v>
+      </c>
+      <c r="Y3">
+        <f t="shared" si="8"/>
+        <v>-6.4500000000000002E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.35">
       <c r="A4">
@@ -24368,7 +24387,7 @@
         <v>0.98362023769468221</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G51" si="8">MAX(C4,G3)</f>
+        <f t="shared" ref="G4:G51" si="9">MAX(C4,G3)</f>
         <v>0.85665447393603489</v>
       </c>
       <c r="H4">
@@ -24429,7 +24448,7 @@
         <v>0.9829639878008527</v>
       </c>
       <c r="G5">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85665447393603489</v>
       </c>
       <c r="H5">
@@ -24490,7 +24509,7 @@
         <v>0.98404713147329193</v>
       </c>
       <c r="G6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H6">
@@ -24551,7 +24570,7 @@
         <v>0.9862941916740775</v>
       </c>
       <c r="G7">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H7">
@@ -24612,7 +24631,7 @@
         <v>0.98211174352064856</v>
       </c>
       <c r="G8">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H8">
@@ -24679,7 +24698,7 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G9">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H9">
@@ -24747,7 +24766,7 @@
         <v>0.9837728206267029</v>
       </c>
       <c r="G10">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H10">
@@ -24815,7 +24834,7 @@
         <v>0.98221179991805663</v>
       </c>
       <c r="G11">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H11">
@@ -24876,7 +24895,7 @@
         <v>0.8856494746498168</v>
       </c>
       <c r="G12">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H12">
@@ -24943,7 +24962,7 @@
         <v>0.98168668248346835</v>
       </c>
       <c r="G13">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H13">
@@ -25011,7 +25030,7 @@
         <v>0.98168668248346835</v>
       </c>
       <c r="G14">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H14">
@@ -25079,7 +25098,7 @@
         <v>0.98516227178213267</v>
       </c>
       <c r="G15">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H15">
@@ -25140,7 +25159,7 @@
         <v>0.98442628371251106</v>
       </c>
       <c r="G16">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H16">
@@ -25207,7 +25226,7 @@
         <v>0.9801792541945703</v>
       </c>
       <c r="G17">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H17">
@@ -25275,7 +25294,7 @@
         <v>0.98098256501230074</v>
       </c>
       <c r="G18">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H18">
@@ -25343,19 +25362,19 @@
         <v>0.98571084821282751</v>
       </c>
       <c r="G19">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H51" si="9">MAX(D19,H18)</f>
+        <f t="shared" ref="H19:H51" si="10">MAX(D19,H18)</f>
         <v>0.89747988148196889</v>
       </c>
       <c r="I19">
-        <f t="shared" ref="I19:I51" si="10">MAX(E19,I18)</f>
+        <f t="shared" ref="I19:I51" si="11">MAX(E19,I18)</f>
         <v>0.93797728748154652</v>
       </c>
       <c r="J19">
-        <f t="shared" ref="J19:J51" si="11">MAX(F19,J18)</f>
+        <f t="shared" ref="J19:J51" si="12">MAX(F19,J18)</f>
         <v>0.9862941916740775</v>
       </c>
       <c r="K19">
@@ -25404,19 +25423,19 @@
         <v>0.98550814410240906</v>
       </c>
       <c r="G20">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H20">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I20">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J20">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K20">
@@ -25471,19 +25490,19 @@
         <v>0.98501605707052708</v>
       </c>
       <c r="G21">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.8585570029150269</v>
       </c>
       <c r="H21">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I21">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J21">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K21">
@@ -25539,19 +25558,19 @@
         <v>0.97781888047587151</v>
       </c>
       <c r="G22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85873772894961231</v>
       </c>
       <c r="H22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I22">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J22">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K22">
@@ -25607,19 +25626,19 @@
         <v>0.98465054032674271</v>
       </c>
       <c r="G23">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85873772894961231</v>
       </c>
       <c r="H23">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I23">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J23">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K23">
@@ -25668,19 +25687,19 @@
         <v>0.98461944300933957</v>
       </c>
       <c r="G24">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H24">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I24">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J24">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K24">
@@ -25729,19 +25748,19 @@
         <v>0.9728033458944616</v>
       </c>
       <c r="G25">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H25">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I25">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J25">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K25">
@@ -25790,19 +25809,19 @@
         <v>0.98184693818723512</v>
       </c>
       <c r="G26">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H26">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I26">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J26">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K26">
@@ -25851,19 +25870,19 @@
         <v>0.98169701262122477</v>
       </c>
       <c r="G27">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H27">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I27">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J27">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K27">
@@ -25912,19 +25931,19 @@
         <v>0.97925671161115113</v>
       </c>
       <c r="G28">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H28">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I28">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J28">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K28">
@@ -25973,19 +25992,19 @@
         <v>0.98182324744708094</v>
       </c>
       <c r="G29">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H29">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I29">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J29">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K29">
@@ -26034,19 +26053,19 @@
         <v>0.98168668248346835</v>
       </c>
       <c r="G30">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H30">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I30">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93797728748154652</v>
       </c>
       <c r="J30">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K30">
@@ -26095,19 +26114,19 @@
         <v>0.9745163036172958</v>
       </c>
       <c r="G31">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H31">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I31">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93801504923327228</v>
       </c>
       <c r="J31">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K31">
@@ -26156,19 +26175,19 @@
         <v>0.98073132491179815</v>
       </c>
       <c r="G32">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H32">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I32">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93801504923327228</v>
       </c>
       <c r="J32">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K32">
@@ -26217,19 +26236,19 @@
         <v>0.98220557900933603</v>
       </c>
       <c r="G33">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H33">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I33">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93801504923327228</v>
       </c>
       <c r="J33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K33">
@@ -26278,19 +26297,19 @@
         <v>0.98182530870530726</v>
       </c>
       <c r="G34">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H34">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I34">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93801504923327228</v>
       </c>
       <c r="J34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K34">
@@ -26339,19 +26358,19 @@
         <v>0.98532038161850666</v>
       </c>
       <c r="G35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I35">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.93801504923327228</v>
       </c>
       <c r="J35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K35">
@@ -26400,19 +26419,19 @@
         <v>0.98525655667336198</v>
       </c>
       <c r="G36">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H36">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94004078308867667</v>
       </c>
       <c r="J36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K36">
@@ -26461,19 +26480,19 @@
         <v>0.98449928863655889</v>
       </c>
       <c r="G37">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H37">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89747988148196889</v>
       </c>
       <c r="I37">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94004078308867667</v>
       </c>
       <c r="J37">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K37">
@@ -26522,19 +26541,19 @@
         <v>0.98384432015799317</v>
       </c>
       <c r="G38">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H38">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I38">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94004078308867667</v>
       </c>
       <c r="J38">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K38">
@@ -26583,19 +26602,19 @@
         <v>0.98511341814826392</v>
       </c>
       <c r="G39">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H39">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I39">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94004078308867667</v>
       </c>
       <c r="J39">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K39">
@@ -26644,19 +26663,19 @@
         <v>0.98505587835115394</v>
       </c>
       <c r="G40">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H40">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I40">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J40">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K40">
@@ -26705,19 +26724,19 @@
         <v>0.98203070293676331</v>
       </c>
       <c r="G41">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H41">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I41">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J41">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K41">
@@ -26766,19 +26785,19 @@
         <v>0.98483570781006091</v>
       </c>
       <c r="G42">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H42">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I42">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J42">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K42">
@@ -26827,19 +26846,19 @@
         <v>0.98480970999199324</v>
       </c>
       <c r="G43">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H43">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I43">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J43">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K43">
@@ -26888,19 +26907,19 @@
         <v>0.98524290692216998</v>
       </c>
       <c r="G44">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H44">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I44">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J44">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K44">
@@ -26949,19 +26968,19 @@
         <v>0.98468217432622696</v>
       </c>
       <c r="G45">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H45">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I45">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J45">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K45">
@@ -27010,19 +27029,19 @@
         <v>0.98519358438675231</v>
       </c>
       <c r="G46">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H46">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I46">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94014194022360442</v>
       </c>
       <c r="J46">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K46">
@@ -27071,19 +27090,19 @@
         <v>0.98166465094357958</v>
       </c>
       <c r="G47">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H47">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I47">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94016794606430998</v>
       </c>
       <c r="J47">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K47">
@@ -27132,19 +27151,19 @@
         <v>0.98417476191910536</v>
       </c>
       <c r="G48">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H48">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I48">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94016794606430998</v>
       </c>
       <c r="J48">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K48">
@@ -27193,19 +27212,19 @@
         <v>0.98474910071074606</v>
       </c>
       <c r="G49">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H49">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I49">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94016794606430998</v>
       </c>
       <c r="J49">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K49">
@@ -27254,19 +27273,19 @@
         <v>0.98168834168373353</v>
       </c>
       <c r="G50">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H50">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I50">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94016794606430998</v>
       </c>
       <c r="J50">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K50">
@@ -27315,19 +27334,19 @@
         <v>0.98481013184144639</v>
       </c>
       <c r="G51">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0.85922155292179325</v>
       </c>
       <c r="H51">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0.89795083698867462</v>
       </c>
       <c r="I51">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0.94016794606430998</v>
       </c>
       <c r="J51">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.9862941916740775</v>
       </c>
       <c r="K51">
